--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H2">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I2">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J2">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>241.1728969229861</v>
+        <v>354.7310889893247</v>
       </c>
       <c r="R2">
-        <v>2170.556072306875</v>
+        <v>3192.579800903922</v>
       </c>
       <c r="S2">
-        <v>0.07806829492926394</v>
+        <v>0.1089961503315089</v>
       </c>
       <c r="T2">
-        <v>0.07806829492926395</v>
+        <v>0.1089961503315089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H3">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I3">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J3">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>3.480575248460666</v>
+        <v>5.955546884679333</v>
       </c>
       <c r="R3">
-        <v>31.325177236146</v>
+        <v>53.599921962114</v>
       </c>
       <c r="S3">
-        <v>0.001126671273957839</v>
+        <v>0.001829926115013825</v>
       </c>
       <c r="T3">
-        <v>0.001126671273957839</v>
+        <v>0.001829926115013824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H4">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I4">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J4">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>2.610500800359667</v>
+        <v>7.057726120961999</v>
       </c>
       <c r="R4">
-        <v>23.494507203237</v>
+        <v>63.519535088658</v>
       </c>
       <c r="S4">
-        <v>0.0008450259087804415</v>
+        <v>0.0021685862929881</v>
       </c>
       <c r="T4">
-        <v>0.0008450259087804415</v>
+        <v>0.0021685862929881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H5">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I5">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J5">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>1.220871389079889</v>
+        <v>0.7576849249652222</v>
       </c>
       <c r="R5">
-        <v>10.987842501719</v>
+        <v>6.819164324686999</v>
       </c>
       <c r="S5">
-        <v>0.0003951992487108729</v>
+        <v>0.0002328094225423606</v>
       </c>
       <c r="T5">
-        <v>0.000395199248710873</v>
+        <v>0.0002328094225423606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H6">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I6">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J6">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>56.62836498158167</v>
+        <v>101.8759675310984</v>
       </c>
       <c r="R6">
-        <v>509.655284834235</v>
+        <v>916.8837077798859</v>
       </c>
       <c r="S6">
-        <v>0.0183307492473163</v>
+        <v>0.03130283365865824</v>
       </c>
       <c r="T6">
-        <v>0.01833074924731631</v>
+        <v>0.03130283365865824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.21979766666668</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H7">
-        <v>267.659393</v>
+        <v>142.424953</v>
       </c>
       <c r="I7">
-        <v>0.3175954182897119</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J7">
-        <v>0.3175954182897119</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>775.5245037596528</v>
+        <v>2.986429714483111</v>
       </c>
       <c r="R7">
-        <v>6979.720533836875</v>
+        <v>26.877867430348</v>
       </c>
       <c r="S7">
-        <v>0.251039301915062</v>
+        <v>0.0009176228197018343</v>
       </c>
       <c r="T7">
-        <v>0.251039301915062</v>
+        <v>0.0009176228197018341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>267.659393</v>
       </c>
       <c r="I8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>11.19226673809267</v>
+        <v>666.6465809338315</v>
       </c>
       <c r="R8">
-        <v>100.730400642834</v>
+        <v>5999.819228404484</v>
       </c>
       <c r="S8">
-        <v>0.003622965896186203</v>
+        <v>0.2048366021722923</v>
       </c>
       <c r="T8">
-        <v>0.003622965896186203</v>
+        <v>0.2048366021722923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>267.659393</v>
       </c>
       <c r="I9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>8.394423103063669</v>
+        <v>11.19226673809267</v>
       </c>
       <c r="R9">
-        <v>75.54980792757301</v>
+        <v>100.730400642834</v>
       </c>
       <c r="S9">
-        <v>0.002717296623841904</v>
+        <v>0.003438982445579242</v>
       </c>
       <c r="T9">
-        <v>0.002717296623841903</v>
+        <v>0.003438982445579241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>267.659393</v>
       </c>
       <c r="I10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>3.925879276861223</v>
+        <v>13.263593560722</v>
       </c>
       <c r="R10">
-        <v>35.332913491751</v>
+        <v>119.372342046498</v>
       </c>
       <c r="S10">
-        <v>0.001270817347857118</v>
+        <v>0.004075426943264043</v>
       </c>
       <c r="T10">
-        <v>0.001270817347857118</v>
+        <v>0.004075426943264043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>267.659393</v>
       </c>
       <c r="I11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>182.0962687407017</v>
+        <v>1.423918230827445</v>
       </c>
       <c r="R11">
-        <v>1638.866418666315</v>
+        <v>12.815264077447</v>
       </c>
       <c r="S11">
-        <v>0.05894503650676466</v>
+        <v>0.0004375190400966379</v>
       </c>
       <c r="T11">
-        <v>0.05894503650676466</v>
+        <v>0.0004375190400966378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.73152166666667</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H12">
-        <v>137.194565</v>
+        <v>267.659393</v>
       </c>
       <c r="I12">
-        <v>0.1627903462302557</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J12">
-        <v>0.1627903462302557</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>397.5117246871528</v>
+        <v>191.4556336954629</v>
       </c>
       <c r="R12">
-        <v>3577.605522184375</v>
+        <v>1723.100703259166</v>
       </c>
       <c r="S12">
-        <v>0.1286755807002095</v>
+        <v>0.05882745459818713</v>
       </c>
       <c r="T12">
-        <v>0.1286755807002095</v>
+        <v>0.05882745459818713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.73152166666667</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H13">
-        <v>137.194565</v>
+        <v>267.659393</v>
       </c>
       <c r="I13">
-        <v>0.1627903462302557</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J13">
-        <v>0.1627903462302557</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>5.736836466996666</v>
+        <v>5.612401112154222</v>
       </c>
       <c r="R13">
-        <v>51.63152820297</v>
+        <v>50.511610009388</v>
       </c>
       <c r="S13">
-        <v>0.00185702890739613</v>
+        <v>0.001724489717222104</v>
       </c>
       <c r="T13">
-        <v>0.00185702890739613</v>
+        <v>0.001724489717222104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H14">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>4.302741679051668</v>
+        <v>366.9466643573727</v>
       </c>
       <c r="R14">
-        <v>38.72467511146501</v>
+        <v>3302.519979216354</v>
       </c>
       <c r="S14">
-        <v>0.001392808689078805</v>
+        <v>0.1127495588444056</v>
       </c>
       <c r="T14">
-        <v>0.001392808689078805</v>
+        <v>0.1127495588444056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H15">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>2.012293660217222</v>
+        <v>6.160633030455333</v>
       </c>
       <c r="R15">
-        <v>18.110642941955</v>
+        <v>55.445697274098</v>
       </c>
       <c r="S15">
-        <v>0.0006513846993358123</v>
+        <v>0.001892941737466311</v>
       </c>
       <c r="T15">
-        <v>0.0006513846993358123</v>
+        <v>0.001892941737466311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H16">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>93.33734974884167</v>
+        <v>7.300767083633999</v>
       </c>
       <c r="R16">
-        <v>840.0361477395751</v>
+        <v>65.706903752706</v>
       </c>
       <c r="S16">
-        <v>0.03021354323423537</v>
+        <v>0.002243264070398552</v>
       </c>
       <c r="T16">
-        <v>0.03021354323423537</v>
+        <v>0.002243264070398552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.401639</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H17">
-        <v>115.204917</v>
+        <v>147.329521</v>
       </c>
       <c r="I17">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J17">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>333.7982466660416</v>
+        <v>0.7837766817732222</v>
       </c>
       <c r="R17">
-        <v>3004.184219994374</v>
+        <v>7.053990135958999</v>
       </c>
       <c r="S17">
-        <v>0.1080513619070438</v>
+        <v>0.0002408264842990862</v>
       </c>
       <c r="T17">
-        <v>0.1080513619070438</v>
+        <v>0.0002408264842990862</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.401639</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H18">
-        <v>115.204917</v>
+        <v>147.329521</v>
       </c>
       <c r="I18">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J18">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>4.817332005993999</v>
+        <v>105.3841843133224</v>
       </c>
       <c r="R18">
-        <v>43.35598805394599</v>
+        <v>948.4576588199019</v>
       </c>
       <c r="S18">
-        <v>0.001559382918289597</v>
+        <v>0.03238078294379213</v>
       </c>
       <c r="T18">
-        <v>0.001559382918289597</v>
+        <v>0.03238078294379214</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.401639</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H19">
-        <v>115.204917</v>
+        <v>147.329521</v>
       </c>
       <c r="I19">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J19">
-        <v>0.1366981871756936</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>3.613095008593</v>
+        <v>3.089270876115111</v>
       </c>
       <c r="R19">
-        <v>32.517855077337</v>
+        <v>27.803437885036</v>
       </c>
       <c r="S19">
-        <v>0.001169568265493626</v>
+        <v>0.0009492222229158159</v>
       </c>
       <c r="T19">
-        <v>0.001169568265493626</v>
+        <v>0.0009492222229158159</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H20">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>1.689761719824333</v>
+        <v>293.2816092618707</v>
       </c>
       <c r="R20">
-        <v>15.207855478419</v>
+        <v>2639.534483356837</v>
       </c>
       <c r="S20">
-        <v>0.0005469802701153081</v>
+        <v>0.0901149275177731</v>
       </c>
       <c r="T20">
-        <v>0.0005469802701153081</v>
+        <v>0.0901149275177731</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H21">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>78.37716917441499</v>
+        <v>4.923877349881333</v>
       </c>
       <c r="R21">
-        <v>705.3945225697349</v>
+        <v>44.314896148932</v>
       </c>
       <c r="S21">
-        <v>0.02537089381475131</v>
+        <v>0.001512931041287245</v>
       </c>
       <c r="T21">
-        <v>0.02537089381475131</v>
+        <v>0.001512931041287245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.622288</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H22">
-        <v>103.866864</v>
+        <v>117.752914</v>
       </c>
       <c r="I22">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J22">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>300.9470254633333</v>
+        <v>5.835127900355999</v>
       </c>
       <c r="R22">
-        <v>2708.52322917</v>
+        <v>52.516151103204</v>
       </c>
       <c r="S22">
-        <v>0.09741733603448277</v>
+        <v>0.001792925676863706</v>
       </c>
       <c r="T22">
-        <v>0.09741733603448278</v>
+        <v>0.001792925676863706</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.622288</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H23">
-        <v>103.866864</v>
+        <v>117.752914</v>
       </c>
       <c r="I23">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J23">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>4.343227540448</v>
+        <v>0.6264324188228889</v>
       </c>
       <c r="R23">
-        <v>39.089047864032</v>
+        <v>5.637891769406</v>
       </c>
       <c r="S23">
-        <v>0.001405914067868377</v>
+        <v>0.0001924802314031323</v>
       </c>
       <c r="T23">
-        <v>0.001405914067868377</v>
+        <v>0.0001924802314031323</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.622288</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H24">
-        <v>103.866864</v>
+        <v>117.752914</v>
       </c>
       <c r="I24">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J24">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>3.257507211056001</v>
+        <v>84.22816220522976</v>
       </c>
       <c r="R24">
-        <v>29.31756489950401</v>
+        <v>758.053459847068</v>
       </c>
       <c r="S24">
-        <v>0.001054463569213303</v>
+        <v>0.02588029556705762</v>
       </c>
       <c r="T24">
-        <v>0.001054463569213303</v>
+        <v>0.02588029556705762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.622288</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H25">
-        <v>103.866864</v>
+        <v>117.752914</v>
       </c>
       <c r="I25">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J25">
-        <v>0.1232448439368635</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>1.523461457338667</v>
+        <v>2.469095435380444</v>
       </c>
       <c r="R25">
-        <v>13.711153116048</v>
+        <v>22.221858918424</v>
       </c>
       <c r="S25">
-        <v>0.0004931484419779581</v>
+        <v>0.0007586645366334619</v>
       </c>
       <c r="T25">
-        <v>0.0004931484419779581</v>
+        <v>0.0007586645366334619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H26">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>70.66357047368001</v>
+        <v>256.5186593416894</v>
       </c>
       <c r="R26">
-        <v>635.9721342631201</v>
+        <v>2308.667934075204</v>
       </c>
       <c r="S26">
-        <v>0.0228739818233211</v>
+        <v>0.07881899056579536</v>
       </c>
       <c r="T26">
-        <v>0.0228739818233211</v>
+        <v>0.07881899056579536</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.201959</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H27">
-        <v>135.605877</v>
+        <v>102.992546</v>
       </c>
       <c r="I27">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J27">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>392.9086115327083</v>
+        <v>4.306667641838667</v>
       </c>
       <c r="R27">
-        <v>3536.177503794374</v>
+        <v>38.76000877654801</v>
       </c>
       <c r="S27">
-        <v>0.1271855409821532</v>
+        <v>0.001323284618371351</v>
       </c>
       <c r="T27">
-        <v>0.1271855409821533</v>
+        <v>0.001323284618371351</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.201959</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H28">
-        <v>135.605877</v>
+        <v>102.992546</v>
       </c>
       <c r="I28">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J28">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>5.670404948713998</v>
+        <v>5.103692624484</v>
       </c>
       <c r="R28">
-        <v>51.03364453842599</v>
+        <v>45.933233620356</v>
       </c>
       <c r="S28">
-        <v>0.001835524851890481</v>
+        <v>0.00156818183071857</v>
       </c>
       <c r="T28">
-        <v>0.001835524851890481</v>
+        <v>0.001568181830718571</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.201959</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H29">
-        <v>135.605877</v>
+        <v>102.992546</v>
       </c>
       <c r="I29">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J29">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>4.252916716433</v>
+        <v>0.5479089011037778</v>
       </c>
       <c r="R29">
-        <v>38.27625044789701</v>
+        <v>4.931180109934</v>
       </c>
       <c r="S29">
-        <v>0.001376680218897531</v>
+        <v>0.0001683527686361779</v>
       </c>
       <c r="T29">
-        <v>0.001376680218897531</v>
+        <v>0.0001683527686361779</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.201959</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H30">
-        <v>135.605877</v>
+        <v>102.992546</v>
       </c>
       <c r="I30">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J30">
-        <v>0.160905263759446</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>1.988991667237666</v>
+        <v>73.67013329638355</v>
       </c>
       <c r="R30">
-        <v>17.900925005139</v>
+        <v>663.031199667452</v>
       </c>
       <c r="S30">
-        <v>0.0006438417835124454</v>
+        <v>0.0226361916757642</v>
       </c>
       <c r="T30">
-        <v>0.0006438417835124455</v>
+        <v>0.0226361916757642</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>34.33084866666667</v>
+      </c>
+      <c r="H31">
+        <v>102.992546</v>
+      </c>
+      <c r="I31">
+        <v>0.1051785671370556</v>
+      </c>
+      <c r="J31">
+        <v>0.1051785671370556</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>2.159593478992889</v>
+      </c>
+      <c r="R31">
+        <v>19.436341310936</v>
+      </c>
+      <c r="S31">
+        <v>0.000663565677769898</v>
+      </c>
+      <c r="T31">
+        <v>0.000663565677769898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H32">
+        <v>201.05677</v>
+      </c>
+      <c r="I32">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J32">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>500.7625803518866</v>
+      </c>
+      <c r="R32">
+        <v>4506.86322316698</v>
+      </c>
+      <c r="S32">
+        <v>0.153866393960387</v>
+      </c>
+      <c r="T32">
+        <v>0.153866393960387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H33">
+        <v>201.05677</v>
+      </c>
+      <c r="I33">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J33">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>8.407255856473332</v>
+      </c>
+      <c r="R33">
+        <v>75.66530270825999</v>
+      </c>
+      <c r="S33">
+        <v>0.002583248414505905</v>
+      </c>
+      <c r="T33">
+        <v>0.002583248414505905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H34">
+        <v>201.05677</v>
+      </c>
+      <c r="I34">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J34">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>9.963167180579998</v>
+      </c>
+      <c r="R34">
+        <v>89.66850462521998</v>
+      </c>
+      <c r="S34">
+        <v>0.00306132420162681</v>
+      </c>
+      <c r="T34">
+        <v>0.00306132420162681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H35">
+        <v>201.05677</v>
+      </c>
+      <c r="I35">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J35">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>1.069599676758889</v>
+      </c>
+      <c r="R35">
+        <v>9.626397090829999</v>
+      </c>
+      <c r="S35">
+        <v>0.0003286496469613173</v>
+      </c>
+      <c r="T35">
+        <v>0.0003286496469613173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>45.201959</v>
-      </c>
-      <c r="H31">
-        <v>135.605877</v>
-      </c>
-      <c r="I31">
-        <v>0.160905263759446</v>
-      </c>
-      <c r="J31">
-        <v>0.160905263759446</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>92.256520289615</v>
-      </c>
-      <c r="R31">
-        <v>830.3086826065349</v>
-      </c>
-      <c r="S31">
-        <v>0.02986367592299231</v>
-      </c>
-      <c r="T31">
-        <v>0.02986367592299231</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H36">
+        <v>201.05677</v>
+      </c>
+      <c r="I36">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J36">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>143.8150586746377</v>
+      </c>
+      <c r="R36">
+        <v>1294.33552807174</v>
+      </c>
+      <c r="S36">
+        <v>0.04418921329928126</v>
+      </c>
+      <c r="T36">
+        <v>0.04418921329928126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>67.01892333333332</v>
+      </c>
+      <c r="H37">
+        <v>201.05677</v>
+      </c>
+      <c r="I37">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="J37">
+        <v>0.205324208431594</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>4.215847711924443</v>
+      </c>
+      <c r="R37">
+        <v>37.94262940731999</v>
+      </c>
+      <c r="S37">
+        <v>0.001295378908831679</v>
+      </c>
+      <c r="T37">
+        <v>0.001295378908831679</v>
       </c>
     </row>
   </sheetData>
